--- a/data/trans_dic/P19F$mañana-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3327497717486531</v>
+        <v>0.335090723658733</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.354052564934692</v>
+        <v>0.3538947239493663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3607577621227501</v>
+        <v>0.3588083418261531</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4286012826054107</v>
+        <v>0.4293290822187161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4488342528578361</v>
+        <v>0.4426707218645965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4253452579478998</v>
+        <v>0.4260409982850318</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3804072926027583</v>
+        <v>0.380651735861645</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4332268425912024</v>
+        <v>0.4341021747668923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4133656373702295</v>
+        <v>0.4122655111174248</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4399286700622311</v>
+        <v>0.4398044266088645</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4946053831042693</v>
+        <v>0.4948902244363988</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.456279124923201</v>
+        <v>0.4550721904276429</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3946489450952312</v>
+        <v>0.3952225452815016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4251063901672685</v>
+        <v>0.4322479791426553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4248938400279085</v>
+        <v>0.4288559343022941</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5179951974249187</v>
+        <v>0.5236566749151791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.580340684087959</v>
+        <v>0.5697698699171606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5295802421247215</v>
+        <v>0.5252649789145436</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3857574972469687</v>
+        <v>0.3845112404741113</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4259068485101878</v>
+        <v>0.4242817317406504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.411787975125913</v>
+        <v>0.4132166574721563</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4352548579248944</v>
+        <v>0.4345801028535718</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4742363768406841</v>
+        <v>0.4744934562292091</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4467281315438211</v>
+        <v>0.4466529607699495</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>130482</v>
+        <v>131400</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>188744</v>
+        <v>188660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>333783</v>
+        <v>331979</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>168068</v>
+        <v>168354</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>239271</v>
+        <v>235986</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>393541</v>
+        <v>394185</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>431103</v>
+        <v>431380</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>434827</v>
+        <v>435706</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>883346</v>
+        <v>880995</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>498557</v>
+        <v>498416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>496432</v>
+        <v>496718</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>975051</v>
+        <v>972472</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>95833</v>
+        <v>95972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86644</v>
+        <v>88099</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>189778</v>
+        <v>191547</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>125785</v>
+        <v>127160</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>118283</v>
+        <v>116129</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>236535</v>
+        <v>234608</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>682108</v>
+        <v>679904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>741336</v>
+        <v>738507</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1444896</v>
+        <v>1449909</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>769630</v>
+        <v>768437</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>825459</v>
+        <v>825906</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1567495</v>
+        <v>1567232</v>
       </c>
     </row>
     <row r="20">
